--- a/size_digital_economy.xlsx
+++ b/size_digital_economy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\Blessing and Curse\Employment\UNDP\Assignment 1\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\GIT\public_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4F4D4-3156-4E30-8992-DA347B1CC383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D71487-6351-4053-ACD5-A045F39F7C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E0A88BC-19A6-48DE-8666-723BAC1E40E7}"/>
   </bookViews>
@@ -548,14 +548,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44088D8A-40B6-4BDA-B002-7B822EE3685D}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection sqref="A1:D120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,20 +883,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
